--- a/media/Book1.xlsx
+++ b/media/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abouei\exhibition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.6\Share\Abouei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16137314-2292-4174-89BF-0F5018AF3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D38F28B-BF26-4D18-ACB4-61766B5D83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28B8157B-ED61-4AAA-BE04-22B40E85CD0D}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,15 +544,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -570,15 +570,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
@@ -596,15 +596,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>25</v>
@@ -622,15 +622,15 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1">
         <v>95</v>
-      </c>
-      <c r="H8" s="1">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
@@ -677,12 +677,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -700,15 +700,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -726,15 +726,15 @@
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>50</v>
@@ -752,219 +752,91 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>75</v>
-      </c>
-      <c r="C14" s="1">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>47</v>
-      </c>
-      <c r="H14" s="1">
-        <v>87</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <v>75</v>
-      </c>
-      <c r="C15" s="1">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1">
-        <v>150</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>87</v>
-      </c>
-      <c r="H15" s="1">
-        <v>95</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>75</v>
-      </c>
-      <c r="C16" s="1">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1">
-        <v>150</v>
-      </c>
-      <c r="E16" s="1">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1">
-        <v>95</v>
-      </c>
-      <c r="H16" s="1">
-        <v>97</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1">
-        <v>150</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>97</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>75</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>75</v>
-      </c>
-      <c r="H19" s="1">
-        <v>90</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1">
-        <v>95</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>140</v>
-      </c>
-      <c r="D21" s="1">
-        <v>200</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1">
-        <v>100</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
